--- a/AnimeList.xlsx
+++ b/AnimeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwung/eclipse-workspace/MusicProject/src/music/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBA13E2-632B-114A-8DE6-B30886A34E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6099FAAE-244E-B94E-91CA-B8A1760AD69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{94F01B8C-741B-E24F-A344-135A8E5A1CA2}"/>
   </bookViews>
@@ -33,25 +33,1341 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Anime</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="435">
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KBSsrFLn6SE</t>
+  </si>
+  <si>
+    <t>Code Geass</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cZ7zQbMxm28</t>
+  </si>
+  <si>
+    <t>Cowboy Bebop</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n2rVnRwW0h8</t>
+  </si>
+  <si>
+    <t>Samurai Champloo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Eq6EYcpWB_c</t>
+  </si>
+  <si>
+    <t>Bakemonogatari</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uKxyLmbOc0Q</t>
+  </si>
+  <si>
+    <t>Kekkai Sensen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VFvc-JdChk0</t>
+  </si>
+  <si>
+    <t>Black Bullet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=as1Rz1KODXc</t>
+  </si>
+  <si>
+    <t>Parasyte</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rm8UjBAS3cs</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y3Xmzu0OtS8</t>
+  </si>
+  <si>
+    <t>91 Days</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Czj0m3vZhBY</t>
+  </si>
+  <si>
+    <t>Golden Time</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GuPMqo4qPcE</t>
+  </si>
+  <si>
+    <t>Gintama</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=REHaJZgWwxY</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yu0HjPzFYnY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_GB7rZfjrxw</t>
+  </si>
+  <si>
+    <t>Bleach</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-rk2DNp_SH8</t>
+  </si>
+  <si>
+    <t>Erased</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y9G20wV0KHE</t>
+  </si>
+  <si>
+    <t>Death Parade</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UjjTMNDZi-A</t>
+  </si>
+  <si>
+    <t>FMA: B</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2uq34TeWEdQ</t>
+  </si>
+  <si>
+    <t>Naruto Shippuden</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=otxA7fpPMPc</t>
+  </si>
+  <si>
+    <t>Mob Psycho 100</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F5OJPUXJvHk</t>
+  </si>
+  <si>
+    <t>Mushishi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v_swE5IdCBs</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SRn99oN1p_c</t>
+  </si>
+  <si>
+    <t>Noragami: Aragoto</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aZenmeRytEM</t>
+  </si>
+  <si>
+    <t>Danganronpa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Avr-Iu5vWsM</t>
+  </si>
+  <si>
+    <t>Ouran High School Host Club</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tw-jmr-AvN8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RkMNfaBFXM8</t>
+  </si>
+  <si>
+    <t>Ping Pong the Animation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2v6iOVhw6mQ</t>
+  </si>
+  <si>
+    <t>Noragami</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gWCnKoEgfP0</t>
+  </si>
+  <si>
+    <t>Bakuman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FrEQLvQP8B0</t>
+  </si>
+  <si>
+    <t>Shigatsu wa kimi no Uso</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lkdi6eK05OA</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XMXgHfHxKVM</t>
+  </si>
+  <si>
+    <t>Barakamon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_vvL3z3pAs0</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=We_uZ7-_HmM</t>
+  </si>
+  <si>
+    <t>Shokugeki no Soma (food wars)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fh6bTCZGDuo</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KId6eunoiWk</t>
+  </si>
+  <si>
+    <t>Tanaka-kun wa Itsumo Kedaruge</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j3MXz9almZs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xjBTNbEXbAA</t>
+  </si>
+  <si>
+    <t>Yuri!!! On Ice</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ORDXWrL5EuQ</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul RE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Py24xhrpeNs</t>
+  </si>
+  <si>
+    <t>Yuu Yuu Hakusho</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hlk7AzBMmOA</t>
+  </si>
+  <si>
+    <t>Re: Zero</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EV4Tc014Hek</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wJz__PoN_AI</t>
+  </si>
+  <si>
+    <t>Fate/stay night UBW</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bTtsZPxL1uM</t>
+  </si>
+  <si>
+    <t>Hinako Note</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3mo2bfXd81Y</t>
+  </si>
+  <si>
+    <t>Sword art Online</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gAi4PwjTfRU</t>
+  </si>
+  <si>
+    <t>Kimi no na wa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e3Ze62AL9r0</t>
+  </si>
+  <si>
+    <t>K-on</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MdEyAj7q0Pg</t>
+  </si>
+  <si>
+    <t>Anohana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T3bxbVGWy5k</t>
+  </si>
+  <si>
+    <t>Koe no Katachi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VgAATnEQ-hU</t>
+  </si>
+  <si>
+    <t>Steins Gate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dd7BILZcYAY</t>
+  </si>
+  <si>
+    <t>Black clover</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dsK8SsfqdHE</t>
+  </si>
+  <si>
+    <t>Haikyuu!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=as-sSVx3SmQ</t>
+  </si>
+  <si>
+    <t>Kuroko no Basket</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4dAAVvnJyM8</t>
+  </si>
+  <si>
+    <t>Death Note</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8QE9cmfxx4s</t>
+  </si>
+  <si>
+    <t>Madoka Magicka</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OrgpX-_bFqM</t>
+  </si>
+  <si>
+    <t>Gakuen Babysitters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Uwhb1IyY54Y</t>
+  </si>
+  <si>
+    <t>Konosuba</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XGavCHXs-H4</t>
+  </si>
+  <si>
+    <t>Aho Girl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qS4KsjGvLQA</t>
+  </si>
+  <si>
+    <t>Saiki Kusuo no Psi nan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4GNTfA-seHY</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_TUTJ0klnKk</t>
+  </si>
+  <si>
+    <t>Gurren Lagann</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PKRUKalbx3s</t>
+  </si>
+  <si>
+    <t>Umaru</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u_SKUbcBG4E</t>
+  </si>
+  <si>
+    <t>tales of zestria the x</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xCF1q05t3qs</t>
+  </si>
+  <si>
+    <t>BLOOD+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xh9N2unxu5A</t>
+  </si>
+  <si>
+    <t>Grimgar</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCMn1a-WsM4</t>
+  </si>
+  <si>
+    <t>Bunny girl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vAxfgZICUuc</t>
+  </si>
+  <si>
+    <t>guilty crown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xmh3mNvgJBs</t>
+  </si>
+  <si>
+    <t>Btooom</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JWIlePu_XV4</t>
+  </si>
+  <si>
+    <t>Free!!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EMDWC1LM5Rc</t>
+  </si>
+  <si>
+    <t>deadman wonderland</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QmHMgTyZwBU</t>
+  </si>
+  <si>
+    <t>Baccano</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_F5459jCtuM</t>
+  </si>
+  <si>
+    <t>Soul eater</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SNhyVTg5MfA</t>
+  </si>
+  <si>
+    <t>Fullmetal Alchemist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uMsOlhzPEfY</t>
+  </si>
+  <si>
+    <t>Fairy Tail</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SC6s6ATi90s</t>
+  </si>
+  <si>
+    <t>Fate/Stay Night UBW</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z3jiVWotIqA</t>
+  </si>
+  <si>
+    <t>no game no life</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NQCax11Q0Bs</t>
+  </si>
+  <si>
+    <t>konosuba</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=11LLFbCBJWI</t>
+  </si>
+  <si>
+    <t>zankyou no terror</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zZJUsz6N0Ws</t>
+  </si>
+  <si>
+    <t>one piece</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8mgdyZQ_wzA</t>
+  </si>
+  <si>
+    <t>hyouka</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Msuu3b-L-2k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ORe7gt-mY14</t>
+  </si>
+  <si>
+    <t>Nisemonogatari</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y8SwZJAUiW4</t>
+  </si>
+  <si>
+    <t>Darling in the Franxx</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mzJqxT1UGho</t>
+  </si>
+  <si>
+    <t>kami nomi zo shiru sekai (op1)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8muiDhiRb_M</t>
+  </si>
+  <si>
+    <t>Ajin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ppl21c_zKo8</t>
+  </si>
+  <si>
+    <t>Asobi Asobase</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ADx0rfpP6gU</t>
+  </si>
+  <si>
+    <t>Nanatsu no Taizai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wj3-AJoyJUg</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VlQSWmzcG58</t>
+  </si>
+  <si>
+    <t>Angel Beats</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zIFV8UUs1-c</t>
+  </si>
+  <si>
+    <t>Magi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=93sAukecMwY</t>
+  </si>
+  <si>
+    <t>Kimi ni Todoke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ooY_apadR24</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EJYKsY0Vcts</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yTW2pOMEZOc</t>
+  </si>
+  <si>
+    <t>Log Horizon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eW6sEkTGbUc</t>
+  </si>
+  <si>
+    <t>Boruto</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9prtl1aVcdM</t>
+  </si>
+  <si>
+    <t>Ao no Exorcist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=80-W822k6Vw</t>
+  </si>
+  <si>
+    <t>Ass class</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KS9UfmCFn_Y</t>
+  </si>
+  <si>
+    <t>One Outs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UbJeAf7stfQ</t>
+  </si>
+  <si>
+    <t>Eromanga Sensei</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x6j3uhuqVtQ</t>
+  </si>
+  <si>
+    <t>Durarara</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZTvNlTCr8w4</t>
+  </si>
+  <si>
+    <t>Hataraku saibou</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5nzU_hXMBds</t>
+  </si>
+  <si>
+    <t>mirai nikki</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZZvJY7_gyfw</t>
+  </si>
+  <si>
+    <t>rokka no yuusha</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y2UHy6w8Jss</t>
+  </si>
+  <si>
+    <t>Kiznaiver</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oFhwaOiAOKY</t>
+  </si>
+  <si>
+    <t>Owari no Seraph</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lUOm6-DzPBc</t>
+  </si>
+  <si>
+    <t>DanManchi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=19cly8eIDcU</t>
+  </si>
+  <si>
+    <t>Elfen Lied</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MPVq30bPq6I</t>
+  </si>
+  <si>
+    <t>Ben-to</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k7bMkQ8UKiI</t>
+  </si>
+  <si>
+    <t>ReLife</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EMe_zK3th8E</t>
+  </si>
+  <si>
+    <t>BlendS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XuX9Tlz3T6c</t>
+  </si>
+  <si>
+    <t>Gangsta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9yRrxlom6ko</t>
+  </si>
+  <si>
+    <t>Great Teacher Onizuka</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jvGyXIirHg4</t>
+  </si>
+  <si>
+    <t>Dragon Ball op1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mmbc8E6rAmM</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0xTEksnrmEw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bwpK5QJu6K4</t>
+  </si>
+  <si>
+    <t>Danshi Koukousei no Nichijou</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E97Aqt3Xe20</t>
+  </si>
+  <si>
+    <t>Trigun</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8tlXlJyXnHs</t>
+  </si>
+  <si>
+    <t>Prison School</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zfsbrbYsfWs</t>
+  </si>
+  <si>
+    <t>Gabriel Dropout</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bMP7LsjVZlw</t>
+  </si>
+  <si>
+    <t>Grisaia no kaijitsu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DumGfk-_NYQ</t>
+  </si>
+  <si>
+    <t>Overlord III</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D-LXfVLL5Tc</t>
+  </si>
+  <si>
+    <t>Nisekoi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nHnIZ8pkhmA</t>
+  </si>
+  <si>
+    <t>D Gray Man</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LdRvv2U4y-E</t>
+  </si>
+  <si>
+    <t>Black Butler</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yv5hYZF0q8o</t>
+  </si>
+  <si>
+    <t>Kaichou wa Maid Sama</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UWGPU43AQto</t>
+  </si>
+  <si>
+    <t>Hellsing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d-KxsdWX9xE</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vpbZW07z-Zk</t>
+  </si>
+  <si>
+    <t>wincest at magic high</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IzhMzY5avLI</t>
+  </si>
+  <si>
+    <t>problem children</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Cq4l2KTWIw</t>
+  </si>
+  <si>
+    <t>Spice and wolf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MN_WgwEmRaw</t>
+  </si>
+  <si>
+    <t>Neverland</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sZ9qdr5WcPY</t>
+  </si>
+  <si>
+    <t>Saiki 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yAnYNq229AQ</t>
+  </si>
+  <si>
+    <t>School days</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CwOoNbgKuks</t>
+  </si>
+  <si>
+    <t>Tsurezure children</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4nvihJo2Gpc</t>
+  </si>
+  <si>
+    <t>classroom of the elite</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9DbGqo9MpqI</t>
+  </si>
+  <si>
+    <t>High school DXD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0EHne2id_Kk</t>
+  </si>
+  <si>
+    <t>Yuru yuri</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AsVCIF7o_go</t>
+  </si>
+  <si>
+    <t>Accel world</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ev4mGuMMwcg</t>
+  </si>
+  <si>
+    <t>Durarara (Ketsu)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HjQzFD9z5Cg</t>
+  </si>
+  <si>
+    <t>Watamote</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gZYq7rat9d4</t>
+  </si>
+  <si>
+    <t>Kuzu no honkai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5DhE_5AWnQM</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jOz5mHKWaQ8</t>
+  </si>
+  <si>
+    <t>Claymore</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IoaYuQxRxKo</t>
+  </si>
+  <si>
+    <t>Clannad</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LZC8hqvXlOA</t>
+  </si>
+  <si>
+    <t>Fate zero op1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GJ4yehnerHQ</t>
+  </si>
+  <si>
+    <t>Non non byori</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oS7CU2gq1rY</t>
+  </si>
+  <si>
+    <t>Nichijou</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WhQvgHM_Nd4</t>
+  </si>
+  <si>
+    <t>Oruchuban Ebichu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pfvp7kCpbXk</t>
+  </si>
+  <si>
+    <t>Handa Kun</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lG2JJ1rtyzQ</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IG7yZ33ILbs</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nafii87gdzs</t>
+  </si>
+  <si>
+    <t>3 Gatsu no Lion</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cKWqPXkLgzY</t>
+  </si>
+  <si>
+    <t>Sakurasou No Pet Na Kanojo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N6AaSfL4yVk</t>
+  </si>
+  <si>
+    <t>Inuyasha</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nVH7_FGcmvo</t>
+  </si>
+  <si>
+    <t>Black Lagoon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IOmNWL5nzE4</t>
+  </si>
+  <si>
+    <t>Detroit Metal City</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tGiK4SCya0M</t>
+  </si>
+  <si>
+    <t>Grand Blue</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0VvMKJ4IuWM</t>
+  </si>
+  <si>
+    <t>The Devil's a Part-Timer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oe9gQt-x_BE</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9zRSEMjmCIU</t>
+  </si>
+  <si>
+    <t>Chivalry</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bxTeqk5IM1Y</t>
+  </si>
+  <si>
+    <t>Fate/Zero</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eQDK1qhzf6o</t>
+  </si>
+  <si>
+    <t>Higurashi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9opZi6PluKI</t>
+  </si>
+  <si>
+    <t>Kyoukai no Kanata</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NqxJ191ecPQ</t>
+  </si>
+  <si>
+    <t>Shakugan no Shana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uFTqc4gxRx4</t>
+  </si>
+  <si>
+    <t>Akame ga Kill (use op 2)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PRvv-vL0i50</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TFwC148aaco</t>
+  </si>
+  <si>
+    <t>Kitsune no Koe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gZ6XrGMK9Ss</t>
+  </si>
+  <si>
+    <t>Digimon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KUUQhLHBR2o</t>
+  </si>
+  <si>
+    <t>The Asterisk War</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vZBUJxsU5U4</t>
+  </si>
+  <si>
+    <t>Hamatora</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4CHyjyOEnzY</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5txHGxJRwtQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=klUWEKZJ4XY</t>
+  </si>
+  <si>
+    <t>Aria the Scarlet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mXCobNIDDuE</t>
+  </si>
+  <si>
+    <t>DevilMan Crybaby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lwpFpF9-MVk</t>
+  </si>
+  <si>
+    <t>Akame ga kill (op1)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S6v6apqVK6Y</t>
+  </si>
+  <si>
+    <t>Beelzebub</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BkHZhFhxQUI</t>
+  </si>
+  <si>
+    <t>Ao no exorcist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OXasTQC5KKQ</t>
+  </si>
+  <si>
+    <t>Bungou Stray Dogs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_xk9-h-Htkg</t>
+  </si>
+  <si>
+    <t>Fairy tail op21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eUKjeqsrv0I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=01OCqcuYzsw</t>
+  </si>
+  <si>
+    <t>Hunter x Hunter op2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pk7Zz3T4GOQ</t>
+  </si>
+  <si>
+    <t>Chobits</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEqQpIW5gA</t>
+  </si>
+  <si>
+    <t>Jojo's bizarre adventure (op2)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OpUbnLjexTc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lilv4MvBY6E</t>
+  </si>
+  <si>
+    <t>Darker than Black</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=379VTZNVbKg</t>
+  </si>
+  <si>
+    <t>Zero no tsukaima op1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cv2po0i4tGU</t>
+  </si>
+  <si>
+    <t>Highschool of the Dead</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CCI6gQm48bs</t>
+  </si>
+  <si>
+    <t>Lucky Star</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BuRCYQRsTx8</t>
+  </si>
+  <si>
+    <t>Psycho-Pass</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J6Ja3Vip1tg</t>
+  </si>
+  <si>
+    <t>Railgun</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yvS0Sr-2RH0</t>
+  </si>
+  <si>
+    <t>Houseki no Kuni</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxxKm_O1xwo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-B3rpKfva1w</t>
+  </si>
+  <si>
+    <t>Hinamatsuri</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uSz-qPHxB88</t>
+  </si>
+  <si>
+    <t>Kamisama Hajimemashita</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IIiW-4W3W4M</t>
+  </si>
+  <si>
+    <t>Mahoutsukai no Yome</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zuW_qSQXFx0</t>
+  </si>
+  <si>
+    <t>Doraemon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v59LH0IHRy0</t>
+  </si>
+  <si>
+    <t>Goblin Slayer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7z4WJAEG3u8</t>
+  </si>
+  <si>
+    <t>Death March</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qMeC9fydMaI</t>
+  </si>
+  <si>
+    <t>Sakamoto desu ga</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f8d3bW42aFY</t>
+  </si>
+  <si>
+    <t>Dororo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5DCGQ57ykME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ndH6UqA0QSo</t>
+  </si>
+  <si>
+    <t>Hakata Tonkotsu Ramens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jwocQ_Ihgfc</t>
+  </si>
+  <si>
+    <t>Kuzu no Honkai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XzqwvYT_Rmw</t>
+  </si>
+  <si>
+    <t>Chunnibyou</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4LNKcBlFYEU</t>
+  </si>
+  <si>
+    <t>Boogiepop</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fj9Y9TGQn38</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JuYeHPFR3f0</t>
+  </si>
+  <si>
+    <t>Pokemon Gold &amp; Silver</t>
+  </si>
+  <si>
+    <t>https://youtu.be/g6TYmX4NZ4I</t>
+  </si>
+  <si>
+    <t>Pokemon Advanced Generation</t>
+  </si>
+  <si>
+    <t>https://youtu.be/J_49dfhh5XU</t>
+  </si>
+  <si>
+    <t>Pokemon Best Wishes</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Rv5-mmaNJ70</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w6GUGI2eHmk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iXpGVuaQwXo</t>
+  </si>
+  <si>
+    <t>Pokemon Sun&amp;Moon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EbokxGtYnQo</t>
+  </si>
+  <si>
+    <t>Yamada-kun and the 7 Witches</t>
+  </si>
+  <si>
+    <t>Kabaneri of the Iron Fortress</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHgAuidDaT4</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul RE S2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yjvLPaTuBgM</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul Root A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qM8wxM_mcRw</t>
+  </si>
+  <si>
+    <t>Kaguya-sama</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vSBkE2l0AkE</t>
+  </si>
+  <si>
+    <t>Shield Hero</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cs85gCoCaBA</t>
+  </si>
+  <si>
+    <t>Black Clover</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lTvKI4Ck1Co</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OkNvl3fNf5A</t>
+  </si>
+  <si>
+    <t>Fire Force</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JBqxVX_LXvk</t>
+  </si>
+  <si>
+    <t>One Punch Man 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rIK39VOoezs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=301-O2GbXuE</t>
+  </si>
+  <si>
+    <t>Carole and Tuesday</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k45EpgweT9o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HutPrLMPWw0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RQOc_07raNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +1390,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,26 +1714,3181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47B50F-6AC1-D248-BEF2-ACFBB935934D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{7066F363-F114-A143-BA10-3B217C0060FE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{578730AC-763E-774D-99D4-CDC48BA8386F}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{96206D23-9970-C545-A5C0-7910A4ECFAEC}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{0B4FE2C7-F088-A644-86CA-84E9C21D1F13}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D5D9BD83-5FF1-4342-A4AF-27FD3C13B164}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{0EF6F0EF-BBED-6C48-9BB5-37AD24DB8233}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{2CFC9451-25EE-4A4E-9E6C-EF500D256093}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{C7A7DB89-CF20-C44A-9F00-6C71791CB186}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{8A3D0AFA-A3B8-424A-B715-03500FEF1469}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{233E7AE7-A9E8-1645-ACC2-00688461DD7A}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{0EF5FD2A-8143-5543-85FD-0D93F382FA56}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{F6D380F9-FEB3-9A47-A5E0-F6E231372855}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{88CDFCAC-9794-EF4A-A823-5C205B4CEEB0}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{3CFE4491-5E04-B94C-B69A-C3EEE91C0B00}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{85983183-CACB-D24E-8EDC-9692525A516E}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{E97CECB9-6DE4-2E4E-AC5A-EF592F4AC130}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{282CF947-D4E5-1A40-9902-4F635BA3B7E5}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{985C86FE-E088-9448-99C6-8E325207F984}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{BF77179E-65D2-4B46-B0F4-668ADD6C5D33}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{0FA2DBE8-159E-0C42-B36D-02D34BC9B07D}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{4D271FE2-FACF-7D4F-96A2-37F17398D257}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{64629E41-8CB1-A64F-923C-9634E3B9696E}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{190B0205-A809-7545-8D31-AD0960CB9FDD}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{902CE966-EA53-9F45-9F51-C931494F7E19}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{BA320D82-FEB3-874D-809C-458D6276AA9A}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{F3BFE14A-1E6C-534B-B931-E6AB3D6CEAFB}"/>
+    <hyperlink ref="B27" r:id="rId27" xr:uid="{50C826B7-2BAB-C544-9B7A-51ADF6E17A78}"/>
+    <hyperlink ref="B28" r:id="rId28" xr:uid="{9ABB2AC9-6F04-874B-8107-E9FEA3C07F9A}"/>
+    <hyperlink ref="B29" r:id="rId29" xr:uid="{E9000979-C652-2946-BDB3-27D1254F4C07}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{B3A3FC16-A488-DD4E-B8A9-D4D683E7816A}"/>
+    <hyperlink ref="B31" r:id="rId31" xr:uid="{67557910-1B34-1D4B-BACF-BBAE688B3FAA}"/>
+    <hyperlink ref="B32" r:id="rId32" xr:uid="{FB23B80E-CAD7-BE4D-BEEA-E4016428958C}"/>
+    <hyperlink ref="B33" r:id="rId33" xr:uid="{E146755F-95E2-D544-9070-0030DECCAB7B}"/>
+    <hyperlink ref="B34" r:id="rId34" xr:uid="{DAE3B74F-E195-3F44-ADCA-6C135361B662}"/>
+    <hyperlink ref="B35" r:id="rId35" xr:uid="{D3601FF5-2717-E845-9141-B730CD5FA771}"/>
+    <hyperlink ref="B36" r:id="rId36" xr:uid="{E76D7325-F1FF-F34F-AA8A-E2E6B53C2C8C}"/>
+    <hyperlink ref="B37" r:id="rId37" xr:uid="{7C6E8E16-9048-D147-9EBD-409DF85FA9CC}"/>
+    <hyperlink ref="B38" r:id="rId38" xr:uid="{737DD610-F1C0-6843-A696-80D8ABF332B0}"/>
+    <hyperlink ref="B39" r:id="rId39" xr:uid="{8E70C082-4279-7542-B58E-8287BA4F3623}"/>
+    <hyperlink ref="B40" r:id="rId40" xr:uid="{D1D1633E-315B-8E43-AF59-114A05197E44}"/>
+    <hyperlink ref="B41" r:id="rId41" xr:uid="{93FF6263-E50D-3443-BBE9-53926648B9B0}"/>
+    <hyperlink ref="B42" r:id="rId42" xr:uid="{80B940E7-C451-CE45-87EF-6986FF53C0F9}"/>
+    <hyperlink ref="B43" r:id="rId43" xr:uid="{B8523E72-432F-7B4C-9722-1CDF5A33AAE7}"/>
+    <hyperlink ref="B44" r:id="rId44" xr:uid="{26DC7332-E813-B542-8F59-C35638D2719C}"/>
+    <hyperlink ref="B45" r:id="rId45" xr:uid="{70825284-FE2B-824E-9031-E56DC8E8D1B4}"/>
+    <hyperlink ref="B46" r:id="rId46" xr:uid="{DB7452AA-1326-F64E-AFA8-4D455FA5DC1F}"/>
+    <hyperlink ref="B47" r:id="rId47" xr:uid="{D93CB668-BBA9-AE4B-8974-D9F9465D9E04}"/>
+    <hyperlink ref="B48" r:id="rId48" xr:uid="{F2F81121-929E-784B-8DFF-A3A8309FF143}"/>
+    <hyperlink ref="B49" r:id="rId49" xr:uid="{B54C6E59-FB9A-AF40-83C2-9F173F68A35C}"/>
+    <hyperlink ref="B50" r:id="rId50" xr:uid="{DFC25364-E832-F944-A9C9-D59A7DCEC25E}"/>
+    <hyperlink ref="B51" r:id="rId51" xr:uid="{E0000DBB-DEA4-9646-A2C2-611C3C7DA009}"/>
+    <hyperlink ref="B52" r:id="rId52" xr:uid="{1EAA66D0-698A-DD42-B462-0C168DE01FDF}"/>
+    <hyperlink ref="B53" r:id="rId53" xr:uid="{A1CA7ECD-02EE-D346-BDB1-0BB990DD583F}"/>
+    <hyperlink ref="B54" r:id="rId54" xr:uid="{A227385E-756D-F94D-BAE6-C66D4351DEA2}"/>
+    <hyperlink ref="B55" r:id="rId55" xr:uid="{53C25313-16B5-9745-B0B4-0D7AA2B4F516}"/>
+    <hyperlink ref="B56" r:id="rId56" xr:uid="{3201AFAE-72D8-0047-A568-456D83052DA8}"/>
+    <hyperlink ref="B57" r:id="rId57" xr:uid="{9DF7DE63-BCD6-FE47-86E3-AEB40E8CD617}"/>
+    <hyperlink ref="B58" r:id="rId58" xr:uid="{C2518D15-B5B4-E94C-87AE-D8E8B331E54A}"/>
+    <hyperlink ref="B59" r:id="rId59" xr:uid="{3A205100-8D6D-4D4B-AED3-74CF4E912734}"/>
+    <hyperlink ref="B60" r:id="rId60" xr:uid="{CF033527-1DC9-D94E-88C0-ECA1D0C88431}"/>
+    <hyperlink ref="B61" r:id="rId61" xr:uid="{B3C3F4A6-4F17-304D-9CAC-A7126484245F}"/>
+    <hyperlink ref="B62" r:id="rId62" xr:uid="{9DB77206-D0DE-774F-8780-6185B457F991}"/>
+    <hyperlink ref="B63" r:id="rId63" xr:uid="{920D17A7-6845-EF48-98C1-DCDBF8048CB3}"/>
+    <hyperlink ref="B64" r:id="rId64" xr:uid="{4B21B417-1623-B04C-810C-AFF68F3EBD39}"/>
+    <hyperlink ref="B65" r:id="rId65" xr:uid="{21A8AB6F-2026-1944-B2DB-F5F298F30D97}"/>
+    <hyperlink ref="B66" r:id="rId66" xr:uid="{FA228111-A7C9-FB4A-A1B2-BEA70927A3AF}"/>
+    <hyperlink ref="B67" r:id="rId67" xr:uid="{9E8F2062-E218-2F44-BFCD-A9CEC62A4597}"/>
+    <hyperlink ref="B68" r:id="rId68" xr:uid="{1A561BF5-E703-5D4F-A1A0-8CAAB839A312}"/>
+    <hyperlink ref="B69" r:id="rId69" xr:uid="{028E0958-F41B-314B-814F-3D3F21FF1123}"/>
+    <hyperlink ref="B70" r:id="rId70" xr:uid="{A6D76CA1-D948-5D47-9F00-A1B705FC1570}"/>
+    <hyperlink ref="B71" r:id="rId71" xr:uid="{095BA7FC-0D37-504C-BA75-84BDE4796244}"/>
+    <hyperlink ref="B72" r:id="rId72" xr:uid="{16DA42CB-368E-164E-BB4C-4AB18C255B59}"/>
+    <hyperlink ref="B73" r:id="rId73" xr:uid="{8810FE1A-6BC8-3948-AE73-077EECA4D007}"/>
+    <hyperlink ref="B74" r:id="rId74" xr:uid="{0D48A6EE-FD94-0F41-92A4-3DA409C7CC1C}"/>
+    <hyperlink ref="B75" r:id="rId75" xr:uid="{4747AE2D-0349-9540-B482-F528FB96BA9B}"/>
+    <hyperlink ref="B76" r:id="rId76" xr:uid="{2AC1E1A0-0E98-8B47-8C76-A20220332FC2}"/>
+    <hyperlink ref="B77" r:id="rId77" xr:uid="{3B08918C-1B77-5742-B6E7-2F608757699D}"/>
+    <hyperlink ref="B78" r:id="rId78" xr:uid="{B9E12F77-77CA-3546-9236-9F0716C61054}"/>
+    <hyperlink ref="B79" r:id="rId79" xr:uid="{164FF250-1F2A-5F4A-B2D6-924FE60217AF}"/>
+    <hyperlink ref="B80" r:id="rId80" xr:uid="{63034CF1-7420-7245-A85A-1C23CDB2185D}"/>
+    <hyperlink ref="B81" r:id="rId81" xr:uid="{8E092B25-0847-4541-A59E-6694DDCF65B4}"/>
+    <hyperlink ref="B82" r:id="rId82" xr:uid="{6724940F-4B8A-2848-9CCF-603456BA4FBB}"/>
+    <hyperlink ref="B83" r:id="rId83" xr:uid="{3D932AE2-4B88-304C-9BDA-5835CB14F111}"/>
+    <hyperlink ref="B84" r:id="rId84" xr:uid="{F8CCC518-F96C-7249-AA14-1D4BC852333D}"/>
+    <hyperlink ref="B85" r:id="rId85" xr:uid="{BF1F782C-1397-584A-AA9B-FA285BB99B32}"/>
+    <hyperlink ref="B86" r:id="rId86" xr:uid="{1E9C6B77-EBA4-164A-81EC-81AEE5C21CE7}"/>
+    <hyperlink ref="B87" r:id="rId87" xr:uid="{2F9B6962-7CCA-4B4E-AD1A-0C583839C345}"/>
+    <hyperlink ref="B88" r:id="rId88" xr:uid="{9785B2D4-933D-3A4A-AB5B-20771C931248}"/>
+    <hyperlink ref="B89" r:id="rId89" xr:uid="{88D9A3CD-4156-CD40-92FD-6B3E5EEDF653}"/>
+    <hyperlink ref="B90" r:id="rId90" xr:uid="{85C2A587-87F4-DB49-A4A5-DB937F8A7E37}"/>
+    <hyperlink ref="B91" r:id="rId91" xr:uid="{4790CFB7-6942-4347-818F-61D8B07110E4}"/>
+    <hyperlink ref="B92" r:id="rId92" xr:uid="{B2F90C3C-F2A2-7142-B21B-CBCE24345ECA}"/>
+    <hyperlink ref="B93" r:id="rId93" xr:uid="{A072021B-B74C-BB4B-B23A-8888A0ED5ED4}"/>
+    <hyperlink ref="B94" r:id="rId94" xr:uid="{DCCC52EF-F3AA-8A44-A569-62C686449545}"/>
+    <hyperlink ref="B95" r:id="rId95" xr:uid="{535C0591-CF23-664B-8BDF-75347CDA5E20}"/>
+    <hyperlink ref="B96" r:id="rId96" xr:uid="{F4445B0E-CB43-4A49-A414-F54C9254935C}"/>
+    <hyperlink ref="B97" r:id="rId97" xr:uid="{7F5E6FB3-6BCD-6A4B-9E87-4356CCD758F1}"/>
+    <hyperlink ref="B98" r:id="rId98" xr:uid="{3298F633-E36D-1948-8558-DAC2F55B45CC}"/>
+    <hyperlink ref="B99" r:id="rId99" xr:uid="{457441C0-96C4-6C4F-ACEE-C22A31AC8EE0}"/>
+    <hyperlink ref="B100" r:id="rId100" xr:uid="{11090C8E-8623-5541-A28D-D961E28D5C43}"/>
+    <hyperlink ref="B101" r:id="rId101" xr:uid="{81EF5823-64EE-BD42-8910-03A976D9B01D}"/>
+    <hyperlink ref="B102" r:id="rId102" xr:uid="{6FB45388-2A1E-1341-8FBA-A43B4A172C7D}"/>
+    <hyperlink ref="B103" r:id="rId103" xr:uid="{C7D61F14-9DDC-C348-A5EA-6A412D83AB3B}"/>
+    <hyperlink ref="B104" r:id="rId104" xr:uid="{FC5C3CB1-263D-1246-9F34-E860C64D2044}"/>
+    <hyperlink ref="B105" r:id="rId105" xr:uid="{FEA5ECC2-2850-1F48-B43A-DEB2E5DF1203}"/>
+    <hyperlink ref="B106" r:id="rId106" xr:uid="{89D3C4AE-5C08-E34E-BE46-AD2F34D20D74}"/>
+    <hyperlink ref="B107" r:id="rId107" xr:uid="{BA800CEE-99B2-214D-B7C3-0A865944FBA8}"/>
+    <hyperlink ref="B108" r:id="rId108" xr:uid="{5FC8CA7C-861F-6046-BF1F-B7BE0577CB1A}"/>
+    <hyperlink ref="B109" r:id="rId109" xr:uid="{B17E8981-6847-E948-B6F8-5065630E40D2}"/>
+    <hyperlink ref="B110" r:id="rId110" xr:uid="{9DB6403A-1649-6347-B6DC-188359799CBA}"/>
+    <hyperlink ref="B111" r:id="rId111" xr:uid="{037058C4-6E09-8240-A3BB-713628066E0F}"/>
+    <hyperlink ref="B112" r:id="rId112" xr:uid="{E652A167-1602-9846-96BF-B8F158C173C4}"/>
+    <hyperlink ref="B113" r:id="rId113" xr:uid="{0EEA2DF1-EF98-F149-9B4F-9BFF4C5FE857}"/>
+    <hyperlink ref="B114" r:id="rId114" xr:uid="{8C6185AF-FB9E-2945-BED4-7278735E5E5A}"/>
+    <hyperlink ref="B115" r:id="rId115" xr:uid="{6A4EF0A3-B850-0E4E-B2D2-B0BFDD92FDA5}"/>
+    <hyperlink ref="B116" r:id="rId116" xr:uid="{DDAF9FDE-45BC-1A4D-BB65-41AEEACDE752}"/>
+    <hyperlink ref="B117" r:id="rId117" xr:uid="{5FC86F31-D83E-9043-88DE-617BA7AFDE1A}"/>
+    <hyperlink ref="B118" r:id="rId118" xr:uid="{3B5F19BA-A10F-7449-BA31-65BF83F5BC30}"/>
+    <hyperlink ref="B119" r:id="rId119" xr:uid="{CCF7464A-E14A-B146-82D4-B99353501A82}"/>
+    <hyperlink ref="B120" r:id="rId120" xr:uid="{997661C8-E07C-D844-9670-7335E1F6F307}"/>
+    <hyperlink ref="B121" r:id="rId121" xr:uid="{FB7C2C40-0196-E947-8C6E-193103762EEE}"/>
+    <hyperlink ref="B122" r:id="rId122" xr:uid="{D8778444-CF5E-5840-89CA-997A28431CCD}"/>
+    <hyperlink ref="B123" r:id="rId123" xr:uid="{199F674E-D69C-E64D-A680-272A533831B0}"/>
+    <hyperlink ref="B124" r:id="rId124" xr:uid="{A2A9F53C-3BDA-A94E-B7AA-5418E015187B}"/>
+    <hyperlink ref="B125" r:id="rId125" xr:uid="{320A1B1E-7713-1C44-89EB-B11D4D751E3C}"/>
+    <hyperlink ref="B126" r:id="rId126" xr:uid="{F79D43C5-4052-A44E-984A-BE57053ABEC2}"/>
+    <hyperlink ref="B127" r:id="rId127" xr:uid="{B935C543-74CC-0E43-88BD-F90B7AF6323F}"/>
+    <hyperlink ref="B128" r:id="rId128" xr:uid="{83AF2494-EE23-0247-87B1-76CBA2298839}"/>
+    <hyperlink ref="B129" r:id="rId129" xr:uid="{1F4B052E-48B7-1D45-923F-C9915464B851}"/>
+    <hyperlink ref="B130" r:id="rId130" xr:uid="{D5A1C3E4-957C-934A-AF4A-9304080D5974}"/>
+    <hyperlink ref="B131" r:id="rId131" xr:uid="{100A6CD3-9E1D-EA40-8CF5-F0EF4AACD146}"/>
+    <hyperlink ref="B132" r:id="rId132" xr:uid="{0C921E8F-1389-B54A-8560-0D0617D18140}"/>
+    <hyperlink ref="B133" r:id="rId133" xr:uid="{614A14C9-090D-6C43-A76C-6C6E4C52D26E}"/>
+    <hyperlink ref="B134" r:id="rId134" xr:uid="{BB85AAA8-9B71-CF49-A19E-7BAA87F82536}"/>
+    <hyperlink ref="B135" r:id="rId135" xr:uid="{753D1C5C-725B-9249-9589-AA1CC3E98B70}"/>
+    <hyperlink ref="B136" r:id="rId136" xr:uid="{13AB59E1-C99A-2F4E-B9C6-38CBE1399825}"/>
+    <hyperlink ref="B137" r:id="rId137" xr:uid="{C1D15173-5707-654B-AD7E-622986C46C7E}"/>
+    <hyperlink ref="B138" r:id="rId138" xr:uid="{779D442C-8ACD-D548-BD36-A6EF9247E69B}"/>
+    <hyperlink ref="B139" r:id="rId139" xr:uid="{D34950B4-059E-044C-9C13-5291120FC646}"/>
+    <hyperlink ref="B140" r:id="rId140" xr:uid="{BB48C2B9-8345-F345-83E5-A40E877DA16F}"/>
+    <hyperlink ref="B141" r:id="rId141" xr:uid="{829B8BCB-11BF-7245-81F7-490FD2627567}"/>
+    <hyperlink ref="B142" r:id="rId142" xr:uid="{E922A8F5-2CC4-0E4A-A400-A1BD77F627E6}"/>
+    <hyperlink ref="B143" r:id="rId143" xr:uid="{23F2853B-5730-AE4A-8D41-FA91029D9099}"/>
+    <hyperlink ref="B144" r:id="rId144" xr:uid="{D8382FD5-B573-D544-AEE8-F0E94DAB2CF8}"/>
+    <hyperlink ref="B145" r:id="rId145" xr:uid="{0F5AD698-F9D3-5249-A848-F45F521FB6A2}"/>
+    <hyperlink ref="B146" r:id="rId146" xr:uid="{4A6F9BEA-5F72-9A43-93E7-8B4E57F74AA6}"/>
+    <hyperlink ref="B147" r:id="rId147" xr:uid="{11F4BE91-CBAF-9C49-9441-43B7B8945AF9}"/>
+    <hyperlink ref="B148" r:id="rId148" xr:uid="{96FBFD1B-3E45-4342-AA7C-85AE72033700}"/>
+    <hyperlink ref="B149" r:id="rId149" xr:uid="{BBD8D960-7B2F-F547-9B9F-87B6F081E28B}"/>
+    <hyperlink ref="B150" r:id="rId150" xr:uid="{895F2044-FA67-B54C-8898-E65C041D6959}"/>
+    <hyperlink ref="B151" r:id="rId151" xr:uid="{21AC84C7-494D-094F-B4EA-F25FAA254B5E}"/>
+    <hyperlink ref="B152" r:id="rId152" xr:uid="{CA6138CD-FFDC-5041-9A4D-99D0D7356818}"/>
+    <hyperlink ref="B153" r:id="rId153" xr:uid="{3F7BB876-FEF4-F044-9426-C8D01C40DFA8}"/>
+    <hyperlink ref="B154" r:id="rId154" xr:uid="{194047B4-AA38-7A4F-BD98-60AF56FC00A8}"/>
+    <hyperlink ref="B155" r:id="rId155" xr:uid="{1DA2737D-6A84-E84B-90E3-C954F5A7BB4F}"/>
+    <hyperlink ref="B156" r:id="rId156" xr:uid="{3034F4CB-E717-C147-8C3F-9B086D927D2A}"/>
+    <hyperlink ref="B157" r:id="rId157" xr:uid="{65F53848-5280-1F47-873E-99B234284072}"/>
+    <hyperlink ref="B158" r:id="rId158" xr:uid="{D2C67744-AE4F-B54D-8625-09844B1F3808}"/>
+    <hyperlink ref="B159" r:id="rId159" xr:uid="{22AC4CCA-695C-CD41-BE1C-BAE056CFF885}"/>
+    <hyperlink ref="B160" r:id="rId160" xr:uid="{74B4708D-6662-A74C-87FA-C6D463151A14}"/>
+    <hyperlink ref="B161" r:id="rId161" xr:uid="{35C0F68E-77BA-7441-93BD-5ACD9A60F889}"/>
+    <hyperlink ref="B162" r:id="rId162" xr:uid="{28F1BB16-BD59-DC47-87AE-37465D542D24}"/>
+    <hyperlink ref="B163" r:id="rId163" xr:uid="{B956CE05-112E-E044-B4ED-0A894FEFE321}"/>
+    <hyperlink ref="B164" r:id="rId164" xr:uid="{D61A3B3B-00FE-DF4B-8A06-96D3877FA928}"/>
+    <hyperlink ref="B165" r:id="rId165" xr:uid="{5AEC891F-789E-D849-B085-7241EF47F8FC}"/>
+    <hyperlink ref="B166" r:id="rId166" xr:uid="{A6D7E8A6-FD16-E547-B99D-A867C2334A09}"/>
+    <hyperlink ref="B167" r:id="rId167" xr:uid="{E35C3ED5-DF6A-5E44-9951-94AB669618B0}"/>
+    <hyperlink ref="B168" r:id="rId168" xr:uid="{EE2603C9-1EC1-7C42-A803-122606E3054F}"/>
+    <hyperlink ref="B169" r:id="rId169" xr:uid="{1E7711A1-5BB4-344F-8344-8D2D2F376F40}"/>
+    <hyperlink ref="B170" r:id="rId170" xr:uid="{9897E3DA-D004-E54E-B04A-7263FA848D17}"/>
+    <hyperlink ref="B171" r:id="rId171" xr:uid="{9BDF3C8C-A9A7-0445-B723-28B2A3CA02F4}"/>
+    <hyperlink ref="B172" r:id="rId172" xr:uid="{A023C132-C477-3149-A561-D761C5128B65}"/>
+    <hyperlink ref="B173" r:id="rId173" xr:uid="{9C0CBFAF-C2B3-C14C-AA9C-024EABE74406}"/>
+    <hyperlink ref="B174" r:id="rId174" xr:uid="{7164A8E0-C28C-684C-857D-1E802067D9E9}"/>
+    <hyperlink ref="B175" r:id="rId175" xr:uid="{43252417-D9EF-6142-A635-B47B3D5B4E43}"/>
+    <hyperlink ref="B176" r:id="rId176" xr:uid="{ED761E7F-5A0A-7F47-B051-551C416C8595}"/>
+    <hyperlink ref="B177" r:id="rId177" xr:uid="{767776B1-F8D7-8E4D-B146-923849CC8C7B}"/>
+    <hyperlink ref="B178" r:id="rId178" xr:uid="{ED0761DE-9C20-C642-A996-51804816141C}"/>
+    <hyperlink ref="B179" r:id="rId179" xr:uid="{CF238795-271A-7145-83F8-1BF95BDC32B5}"/>
+    <hyperlink ref="B180" r:id="rId180" xr:uid="{230EBBB8-D410-3748-A7BB-C3F330F5B852}"/>
+    <hyperlink ref="B181" r:id="rId181" xr:uid="{8CABA7D9-F06A-244F-918C-5B5ECC89CB45}"/>
+    <hyperlink ref="B182" r:id="rId182" xr:uid="{3447AEFC-8DFD-EE43-912E-9DC56C068AE7}"/>
+    <hyperlink ref="B183" r:id="rId183" xr:uid="{4291D9A3-3322-EE4F-8106-F3B66FB6404A}"/>
+    <hyperlink ref="B184" r:id="rId184" xr:uid="{42A70568-3E04-254E-AF9F-19C2EB4B95C6}"/>
+    <hyperlink ref="B185" r:id="rId185" xr:uid="{EB39FE59-C255-2C41-B4F5-2EC3008D8BB2}"/>
+    <hyperlink ref="B186" r:id="rId186" xr:uid="{DCE2DD16-31C6-904E-99A7-D9F6F01B63F2}"/>
+    <hyperlink ref="B187" r:id="rId187" xr:uid="{0F567591-795A-CF48-BE0D-C2F0D094D18A}"/>
+    <hyperlink ref="B188" r:id="rId188" xr:uid="{E698023B-41B0-C843-A867-9B193A1D6BD9}"/>
+    <hyperlink ref="B189" r:id="rId189" xr:uid="{77ECF4B7-507F-4447-AC0D-F4BE4397CA88}"/>
+    <hyperlink ref="B190" r:id="rId190" xr:uid="{84D2B690-47C8-8D4E-9699-651351199C03}"/>
+    <hyperlink ref="B191" r:id="rId191" xr:uid="{66A8EC38-D399-F049-BD6B-90910931AE02}"/>
+    <hyperlink ref="B192" r:id="rId192" xr:uid="{40A92A5D-5BE4-1642-99D9-5CD1D2F3EE64}"/>
+    <hyperlink ref="B193" r:id="rId193" xr:uid="{DFA35521-F294-9043-B1E8-2E840F7E219C}"/>
+    <hyperlink ref="B194" r:id="rId194" xr:uid="{F9817695-6050-C243-89A5-BB33DADE80B9}"/>
+    <hyperlink ref="B195" r:id="rId195" xr:uid="{73520694-1D7F-8747-9241-49B1D38482CD}"/>
+    <hyperlink ref="B196" r:id="rId196" xr:uid="{1926E010-1A9A-F74D-AF01-7C2839127472}"/>
+    <hyperlink ref="B197" r:id="rId197" xr:uid="{EE4E6273-30B5-0D41-8BF9-49210509282C}"/>
+    <hyperlink ref="B198" r:id="rId198" xr:uid="{531FCC26-BDE3-8446-8CC7-9D62373E8F2F}"/>
+    <hyperlink ref="B199" r:id="rId199" xr:uid="{3B953ED4-EB2D-C346-8670-5389A302623A}"/>
+    <hyperlink ref="B200" r:id="rId200" xr:uid="{155BAC02-9CE9-8045-8DE8-D811D444E80E}"/>
+    <hyperlink ref="B201" r:id="rId201" xr:uid="{972923D9-1C5C-F243-B707-7E7548FD6659}"/>
+    <hyperlink ref="B202" r:id="rId202" xr:uid="{864DFE42-C662-D646-B859-4859466EB64A}"/>
+    <hyperlink ref="B203" r:id="rId203" xr:uid="{3C59E655-29A8-0F45-9847-18596ED3DDC6}"/>
+    <hyperlink ref="B204" r:id="rId204" xr:uid="{3A312781-5FAB-B347-83CB-D7993357574D}"/>
+    <hyperlink ref="B205" r:id="rId205" xr:uid="{A64F0013-1DF6-694E-BC18-162C45FD97B1}"/>
+    <hyperlink ref="B206" r:id="rId206" xr:uid="{83420A5A-D1FE-8F45-8134-BFC15CB7864A}"/>
+    <hyperlink ref="B207" r:id="rId207" xr:uid="{4823C261-DE80-3B49-8BB2-1E3094C4F9E8}"/>
+    <hyperlink ref="B208" r:id="rId208" xr:uid="{BF745F78-1FC0-9F49-8CCB-C69410E88678}"/>
+    <hyperlink ref="B209" r:id="rId209" xr:uid="{DAFAA0DC-B155-A946-A0A2-3206D4C083CD}"/>
+    <hyperlink ref="B210" r:id="rId210" xr:uid="{BC86AD04-9AD8-8C44-9810-27E6598AFD71}"/>
+    <hyperlink ref="B211" r:id="rId211" xr:uid="{4724711E-CE1C-6C45-BBB5-35ED0DFAA9D9}"/>
+    <hyperlink ref="B212" r:id="rId212" xr:uid="{C02E0409-889D-9741-9E36-580A0B78FA78}"/>
+    <hyperlink ref="B213" r:id="rId213" xr:uid="{5B6FF840-ED0B-334A-B484-73AA11A224EE}"/>
+    <hyperlink ref="B214" r:id="rId214" xr:uid="{C58B450D-D26D-7A47-AFB3-2BEC606A2347}"/>
+    <hyperlink ref="B215" r:id="rId215" xr:uid="{036A7A15-157F-D44B-9475-7939319E18A6}"/>
+    <hyperlink ref="B216" r:id="rId216" xr:uid="{D3AAB4A0-402A-8D4B-B107-2672D4AE9A6A}"/>
+    <hyperlink ref="B217" r:id="rId217" xr:uid="{992235D9-5B4E-5146-B175-EEB88B26DA50}"/>
+    <hyperlink ref="B218" r:id="rId218" xr:uid="{1F570D3B-2228-7840-B3F6-4351B08EB007}"/>
+    <hyperlink ref="B219" r:id="rId219" xr:uid="{D9A50AEA-AD2E-A74C-A006-D7204BF358B9}"/>
+    <hyperlink ref="B220" r:id="rId220" xr:uid="{63EA9F73-EEA9-0046-8D56-FB8462834D22}"/>
+    <hyperlink ref="B221" r:id="rId221" xr:uid="{5D77ECF2-B576-9D4E-82B0-7C0D72840A2B}"/>
+    <hyperlink ref="B222" r:id="rId222" xr:uid="{7EC5FED9-AD3E-F24F-B253-4F3D6BC63CF0}"/>
+    <hyperlink ref="B223" r:id="rId223" xr:uid="{811CFB0E-4FD9-D847-9257-79B5D9F14AA8}"/>
+    <hyperlink ref="B224" r:id="rId224" xr:uid="{20C1C8A5-DBCD-284A-AFBB-1172983557B5}"/>
+    <hyperlink ref="B225" r:id="rId225" xr:uid="{85522D7E-1959-044A-950B-76499F4AAF4A}"/>
+    <hyperlink ref="B226" r:id="rId226" xr:uid="{B87DC158-4E9B-8942-85D6-24F4F03102C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>